--- a/doan.xlsx
+++ b/doan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>cat_id</t>
   </si>
@@ -129,9 +129,6 @@
     <t>date_sale_begin</t>
   </si>
   <si>
-    <t>finish</t>
-  </si>
-  <si>
     <t>warranty</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>update_at</t>
+  </si>
+  <si>
+    <t>date_sale_finish</t>
   </si>
 </sst>
 </file>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,11 +850,11 @@
       </c>
       <c r="K2" s="8"/>
       <c r="N2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="8"/>
       <c r="R2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -871,11 +871,11 @@
       </c>
       <c r="K3" s="4"/>
       <c r="N3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="4"/>
       <c r="R3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="O4" s="4"/>
       <c r="R4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="N5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="4"/>
       <c r="R5" s="9" t="s">
@@ -951,7 +951,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="N7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -983,11 +983,11 @@
       </c>
       <c r="K9" s="4"/>
       <c r="N9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="8"/>
       <c r="R9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S9" s="8"/>
     </row>
@@ -1005,11 +1005,11 @@
       </c>
       <c r="K10" s="4"/>
       <c r="N10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="4"/>
       <c r="R10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S10" s="4"/>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4"/>
       <c r="J11" s="3" t="s">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="K11" s="4"/>
       <c r="N11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O11" s="4"/>
       <c r="R11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S11" s="4"/>
     </row>
@@ -1041,13 +1041,11 @@
       </c>
       <c r="G12" s="4"/>
       <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="N12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="4"/>
       <c r="R12" s="3" t="s">
@@ -1061,11 +1059,11 @@
       </c>
       <c r="G13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="6"/>
       <c r="N13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O13" s="4"/>
       <c r="R13" s="5" t="s">
@@ -1083,7 +1081,7 @@
       </c>
       <c r="G14" s="10"/>
       <c r="N14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -1093,10 +1091,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -1106,14 +1104,14 @@
       </c>
       <c r="C16" s="4"/>
       <c r="J16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="4"/>
       <c r="R16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S16" s="8"/>
     </row>
@@ -1123,18 +1121,18 @@
       </c>
       <c r="C17" s="4"/>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="8"/>
       <c r="J17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" s="6"/>
       <c r="R17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -1151,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4"/>
       <c r="R19" s="5" t="s">
@@ -1167,15 +1165,15 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4"/>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="8"/>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="8"/>
     </row>
@@ -1185,15 +1183,15 @@
       </c>
       <c r="C21" s="8"/>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4"/>
       <c r="L21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="4"/>
       <c r="O21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="4"/>
     </row>
@@ -1207,11 +1205,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="L22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M22" s="4"/>
       <c r="O22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P22" s="4"/>
     </row>
@@ -1229,7 +1227,7 @@
       </c>
       <c r="M23" s="4"/>
       <c r="O23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23" s="4"/>
     </row>
@@ -1253,11 +1251,11 @@
       </c>
       <c r="C25" s="6"/>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="8"/>
       <c r="L25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M25" s="4"/>
       <c r="O25" s="3" t="s">
@@ -1267,11 +1265,11 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="4"/>
       <c r="O26" s="5" t="s">
@@ -1285,7 +1283,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4"/>
       <c r="L27" s="3" t="s">
@@ -1303,7 +1301,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="L28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -1317,7 +1315,7 @@
       </c>
       <c r="G29" s="4"/>
       <c r="L29" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="6"/>
     </row>
@@ -1327,7 +1325,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="F30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -1337,7 +1335,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="R31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="8"/>
@@ -1348,7 +1346,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="R32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S32" s="12"/>
       <c r="T32" s="4"/>
@@ -1359,7 +1357,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="R33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S33" s="12"/>
       <c r="T33" s="4"/>
@@ -1370,47 +1368,47 @@
       </c>
       <c r="C34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="8"/>
       <c r="J34" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="15"/>
       <c r="N34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="8"/>
       <c r="R34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S34" s="12"/>
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="4"/>
       <c r="J35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35" s="4"/>
       <c r="N35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O35" s="12"/>
       <c r="P35" s="4"/>
       <c r="R35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S35" s="12"/>
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="4"/>
       <c r="J36" s="3" t="s">
@@ -1418,32 +1416,32 @@
       </c>
       <c r="K36" s="4"/>
       <c r="N36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O36" s="12"/>
       <c r="P36" s="4"/>
       <c r="R36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S36" s="12"/>
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="4"/>
       <c r="J37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" s="4"/>
       <c r="N37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="4"/>
       <c r="R37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S37" s="12"/>
       <c r="T37" s="4"/>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="K38" s="4"/>
       <c r="N38" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="6"/>
@@ -1474,7 +1472,7 @@
       </c>
       <c r="G39" s="4"/>
       <c r="J39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39" s="4"/>
       <c r="R39" s="3" t="s">
@@ -1485,7 +1483,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="4"/>
       <c r="J40" s="5" t="s">
@@ -1493,7 +1491,7 @@
       </c>
       <c r="K40" s="6"/>
       <c r="R40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="4"/>
@@ -1504,7 +1502,7 @@
       </c>
       <c r="G41" s="4"/>
       <c r="R41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S41" s="12"/>
       <c r="T41" s="4"/>
@@ -1515,7 +1513,7 @@
       </c>
       <c r="G42" s="4"/>
       <c r="R42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="6"/>
